--- a/excel/data_excel/MonProp.xlsx
+++ b/excel/data_excel/MonProp.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771F2C53-D5B3-42A5-AC5D-CCEEE999E07C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12675" yWindow="5940" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +13,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="MonProp" localSheetId="0">Sheet1!$A$1:$CN$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$3:$CP$3</definedName>
+    <definedName name="MonProp" localSheetId="0">Sheet1!$C$1:$CP$16</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="MonProp" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="MonProp" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data_excel\MonProp.txt">
       <textFields count="92">
         <textField/>
@@ -122,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="120">
   <si>
     <t>Id</t>
   </si>
@@ -461,12 +463,40 @@
   </si>
   <si>
     <t>stupidity</t>
+  </si>
+  <si>
+    <t>数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_UniqueTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,12 +545,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MonProp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MonProp" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,7 +599,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,9 +632,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,6 +684,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -809,736 +876,1391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CP16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="69" max="71" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="74" max="76" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="84" max="86" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="61" max="63" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="71" max="73" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="76" max="78" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="81" max="83" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="86" max="88" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="5.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" t="s">
+        <v>119</v>
+      </c>
+      <c r="S3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" t="s">
+        <v>118</v>
+      </c>
+      <c r="U3" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" t="s">
+        <v>119</v>
+      </c>
+      <c r="X3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>92</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
         <v>93</v>
       </c>
-      <c r="E2">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH4" t="s">
         <v>93</v>
       </c>
-      <c r="AI2">
+      <c r="AK4">
         <v>2</v>
       </c>
-      <c r="AJ2">
+      <c r="AL4">
         <v>2</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BL4" t="s">
         <v>93</v>
       </c>
-      <c r="BM2">
+      <c r="BO4">
         <v>2</v>
       </c>
-      <c r="BN2">
+      <c r="BP4">
         <v>2</v>
       </c>
-      <c r="CN2">
+      <c r="CP4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
         <v>93</v>
       </c>
-      <c r="E3">
+      <c r="G5">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="H5">
         <v>16</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH5" t="s">
         <v>93</v>
       </c>
-      <c r="AI3">
+      <c r="AK5">
         <v>16</v>
       </c>
-      <c r="AJ3">
+      <c r="AL5">
         <v>16</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BL5" t="s">
         <v>93</v>
       </c>
-      <c r="BM3">
+      <c r="BO5">
         <v>16</v>
       </c>
-      <c r="BN3">
+      <c r="BP5">
         <v>16</v>
       </c>
-      <c r="CN3">
+      <c r="CP5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH6" t="s">
         <v>96</v>
       </c>
-      <c r="AI4">
+      <c r="AK6">
         <v>15</v>
       </c>
-      <c r="AJ4">
+      <c r="AL6">
         <v>15</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM6" t="s">
         <v>97</v>
       </c>
-      <c r="AN4">
+      <c r="AP6">
         <v>15</v>
       </c>
-      <c r="AO4">
+      <c r="AQ6">
         <v>15</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BL6" t="s">
         <v>96</v>
       </c>
-      <c r="BM4">
+      <c r="BO6">
         <v>30</v>
       </c>
-      <c r="BN4">
+      <c r="BP6">
         <v>30</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BQ6" t="s">
         <v>97</v>
       </c>
-      <c r="BR4">
+      <c r="BT6">
         <v>30</v>
       </c>
-      <c r="BS4">
+      <c r="BU6">
         <v>30</v>
       </c>
-      <c r="CN4">
+      <c r="CP6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH7" t="s">
         <v>99</v>
       </c>
-      <c r="AI5">
+      <c r="AK7">
         <v>15</v>
       </c>
-      <c r="AJ5">
+      <c r="AL7">
         <v>15</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BL7" t="s">
         <v>99</v>
       </c>
-      <c r="BM5">
+      <c r="BO7">
         <v>25</v>
       </c>
-      <c r="BN5">
+      <c r="BP7">
         <v>25</v>
       </c>
-      <c r="CN5">
+      <c r="CP7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>100</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH8" t="s">
         <v>101</v>
       </c>
-      <c r="AI6">
+      <c r="AK8">
         <v>40</v>
       </c>
-      <c r="AJ6">
+      <c r="AL8">
         <v>40</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BL8" t="s">
         <v>101</v>
       </c>
-      <c r="BM6">
+      <c r="BO8">
         <v>100</v>
       </c>
-      <c r="BN6">
+      <c r="BP8">
         <v>100</v>
       </c>
-      <c r="CN6">
+      <c r="CP8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>102</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH9" t="s">
         <v>101</v>
       </c>
-      <c r="AI7">
+      <c r="AK9">
         <v>40</v>
       </c>
-      <c r="AJ7">
+      <c r="AL9">
         <v>40</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BL9" t="s">
         <v>101</v>
       </c>
-      <c r="BM7">
+      <c r="BO9">
         <v>100</v>
       </c>
-      <c r="BN7">
+      <c r="BP9">
         <v>100</v>
       </c>
-      <c r="CN7">
+      <c r="CP9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH10" t="s">
         <v>101</v>
       </c>
-      <c r="AI8">
+      <c r="AK10">
         <v>40</v>
       </c>
-      <c r="AJ8">
+      <c r="AL10">
         <v>40</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BL10" t="s">
         <v>101</v>
       </c>
-      <c r="BM8">
+      <c r="BO10">
         <v>100</v>
       </c>
-      <c r="BN8">
+      <c r="BP10">
         <v>100</v>
       </c>
-      <c r="CN8">
+      <c r="CP10">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>104</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH11" t="s">
         <v>101</v>
       </c>
-      <c r="AI9">
+      <c r="AK11">
         <v>60</v>
       </c>
-      <c r="AJ9">
+      <c r="AL11">
         <v>60</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BL11" t="s">
         <v>101</v>
       </c>
-      <c r="BM9">
+      <c r="BO11">
         <v>120</v>
       </c>
-      <c r="BN9">
+      <c r="BP11">
         <v>120</v>
       </c>
-      <c r="CN9">
+      <c r="CP11">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>105</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL12" t="s">
         <v>106</v>
       </c>
-      <c r="BM10">
+      <c r="BO12">
         <v>1</v>
       </c>
-      <c r="BN10">
+      <c r="BP12">
         <v>1</v>
       </c>
-      <c r="CN10">
+      <c r="CP12">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH13" t="s">
         <v>108</v>
       </c>
-      <c r="AI11">
+      <c r="AK13">
         <v>15</v>
       </c>
-      <c r="AJ11">
+      <c r="AL13">
         <v>20</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BL13" t="s">
         <v>108</v>
       </c>
-      <c r="BM11">
+      <c r="BO13">
         <v>30</v>
       </c>
-      <c r="BN11">
+      <c r="BP13">
         <v>40</v>
       </c>
-      <c r="CN11">
+      <c r="CP13">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>109</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH14" t="s">
         <v>108</v>
       </c>
-      <c r="AI12">
+      <c r="AK14">
         <v>15</v>
       </c>
-      <c r="AJ12">
+      <c r="AL14">
         <v>20</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BL14" t="s">
         <v>108</v>
       </c>
-      <c r="BM12">
+      <c r="BO14">
         <v>30</v>
       </c>
-      <c r="BN12">
+      <c r="BP14">
         <v>40</v>
       </c>
-      <c r="CN12">
+      <c r="CP14">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>110</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH15" t="s">
         <v>108</v>
       </c>
-      <c r="AI13">
+      <c r="AK15">
         <v>15</v>
       </c>
-      <c r="AJ13">
+      <c r="AL15">
         <v>20</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BL15" t="s">
         <v>108</v>
       </c>
-      <c r="BM13">
+      <c r="BO15">
         <v>30</v>
       </c>
-      <c r="BN13">
+      <c r="BP15">
         <v>40</v>
       </c>
-      <c r="CN13">
+      <c r="CP15">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>111</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
         <v>112</v>
       </c>
-      <c r="E14">
+      <c r="G16">
         <v>-1</v>
       </c>
-      <c r="F14">
+      <c r="H16">
         <v>-1</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH16" t="s">
         <v>112</v>
       </c>
-      <c r="AI14">
+      <c r="AK16">
         <v>-1</v>
       </c>
-      <c r="AJ14">
+      <c r="AL16">
         <v>-1</v>
       </c>
-      <c r="BJ14" t="s">
+      <c r="BL16" t="s">
         <v>112</v>
       </c>
-      <c r="BM14">
+      <c r="BO16">
         <v>-1</v>
       </c>
-      <c r="BN14">
+      <c r="BP16">
         <v>-1</v>
       </c>
-      <c r="CN14">
+      <c r="CP16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C3:CP3" xr:uid="{75E50BFB-08B0-4478-ABEF-69DB03AB413C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1546,12 +2268,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
